--- a/Погода.xlsx
+++ b/Погода.xlsx
@@ -19,42 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Города</t>
-  </si>
-  <si>
-    <t>темп 1 день</t>
-  </si>
-  <si>
-    <t>темп за 2 день</t>
-  </si>
-  <si>
-    <t>Дербент</t>
-  </si>
-  <si>
-    <t>Питер</t>
-  </si>
-  <si>
-    <t>Казань</t>
-  </si>
-  <si>
-    <t>+35</t>
-  </si>
-  <si>
-    <t>+32</t>
-  </si>
-  <si>
-    <t>+19</t>
-  </si>
-  <si>
-    <t>+17</t>
-  </si>
-  <si>
-    <t>+24</t>
-  </si>
-  <si>
-    <t>+28</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>математ.</t>
+  </si>
+  <si>
+    <t>русский яз.</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Саша</t>
+  </si>
+  <si>
+    <t>Маша</t>
+  </si>
+  <si>
+    <t>Степа</t>
   </si>
 </sst>
 </file>
@@ -373,60 +361,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
